--- a/biology/Botanique/Conceveiba/Conceveiba.xlsx
+++ b/biology/Botanique/Conceveiba/Conceveiba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conceveiba est un genre de plantes à fleurs de la famille des Euphorbiaceae. Il comporte 14-17 espèces de plantes tropicales, et dont l'espèce type est Conceveiba guianensis Aubl..
-Ce genre serait étroitement lié au genre Gavarretia[3].
+Ce genre serait étroitement lié au genre Gavarretia.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Conceveiba regroupe des arbres dioïques.
 Les feuilles sont alternes, à long pétiole, à nervures pennées ou palmées, souvent biglanduleuses et stipellées à la base, crénelées-denticulées.
@@ -526,7 +540,7 @@
 Les styles sont libres (ou quasiment), bilobés ou profondément bipartites à l'apex.
 On compte 1 ovule par loge.
 Le fruit est une capsule à parois épaisses.
-Les graines sont lisses, caronculées et dotées d'un endosperme abondant[3].
+Les graines sont lisses, caronculées et dotées d'un endosperme abondant.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Conceveiba est présent en Afrique et de l'Amérique centrale au nord de l'Amérique du Sud (Costa Rica, Panama, Colombie, Venezuela, Guyana, Suriname, Guyane, Équateur, Pérou, Brésil, Bolivie)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Conceveiba est présent en Afrique et de l'Amérique centrale au nord de l'Amérique du Sud (Costa Rica, Panama, Colombie, Venezuela, Guyana, Suriname, Guyane, Équateur, Pérou, Brésil, Bolivie).
 </t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « CONCEVEIBA. (Tabula 353.)
@@ -596,7 +614,7 @@
 COR. nulla.
 PIST. Germen trigonum. Stigmata tria, craſſa, incurva, concava, ſulcata, capſula trilocularis, trifariam dehiſcens, loculis ſingulis bivalvibus.
 SEM. unicum, ſubrotundum, calyptrâ carnoſa, albâ, dulci &amp; eduli, ſupernè obvolutum. »
-— Fusée-Aublet, 1775[4].</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
@@ -624,9 +642,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (06 février 2022)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (06 février 2022) :
 Conceveiba guianensis Aubl.
 Conceveiba hostmanii Benth.
 Conceveiba krukoffii Steyerm.
@@ -641,7 +661,7 @@
 Conceveiba santanderensis J.Murillo
 Conceveiba terminalis (Baill.) Müll.Arg.
 Conceveiba tristigmata J.Murillo
-Selon GBIF       (06 février 2022)[6] :
+Selon GBIF       (06 février 2022) :
 Conceveiba belizensis McPherson &amp; B.Holst
 Conceveiba guianensis Aubl.
 Conceveiba hostmanii Benth.
